--- a/original/3-4_要件定義計画/3_要件定義計画プロセスガイド/要件定義計画プロセス一覧.xlsx
+++ b/original/3-4_要件定義計画/3_要件定義計画プロセスガイド/要件定義計画プロセス一覧.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">要件定義計画プロセス一覧!$A:$L</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">要件定義計画プロセス一覧!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1437,16 +1437,6 @@
       <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">この 作品 は </t>
@@ -1879,6 +1869,10 @@
   <si>
     <t xml:space="preserve">要件定義を円滑に推進するために、要件定義計画をステークホルダーに説明し、合意を得る。ステークホルダーから合意を得た要件定義計画を決定事項とするために、お客さまのプロジェクトオーナーから承認を得る。また要件定義計画に見直しがあった場合は、再度お客さまのプロジェクトオーナーから承認を得る。
 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2239,22 +2233,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3537,7 +3531,7 @@
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -3611,7 +3605,7 @@
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
@@ -3828,9 +3822,7 @@
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
-      <c r="R31" s="28" t="s">
-        <v>133</v>
-      </c>
+      <c r="R31" s="28"/>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
@@ -4067,12 +4059,12 @@
     <row r="38" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -4087,7 +4079,7 @@
       <c r="P38" s="33"/>
       <c r="Q38" s="37"/>
       <c r="R38" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S38" s="33"/>
       <c r="T38" s="17"/>
@@ -4106,7 +4098,11 @@
       <c r="AG38" s="17"/>
       <c r="AH38" s="17"/>
     </row>
-    <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
     <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4585,7 +4581,7 @@
     <hyperlink ref="E38" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4619,7 +4615,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -4675,16 +4671,16 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="38" t="s">
@@ -4694,7 +4690,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>16</v>
@@ -4715,10 +4711,10 @@
         <f t="shared" ref="B5:B27" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="39" t="s">
         <v>19</v>
       </c>
@@ -4726,7 +4722,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>21</v>
@@ -4735,7 +4731,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M5" s="6"/>
     </row>
@@ -4747,12 +4743,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="42" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="47" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="39" t="s">
@@ -4762,7 +4758,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>27</v>
@@ -4783,10 +4779,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="39" t="s">
         <v>30</v>
       </c>
@@ -4815,12 +4811,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="42" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="47" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="39" t="s">
@@ -4849,10 +4845,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="39" t="s">
         <v>44</v>
       </c>
@@ -4881,10 +4877,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="44"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="39" t="s">
         <v>49</v>
       </c>
@@ -4913,16 +4909,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="47" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="39" t="s">
@@ -4932,7 +4928,7 @@
         <v>59</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>60</v>
@@ -4953,10 +4949,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="44"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="39" t="s">
         <v>63</v>
       </c>
@@ -4964,7 +4960,7 @@
         <v>64</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>65</v>
@@ -4985,12 +4981,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="47" t="s">
         <v>69</v>
       </c>
       <c r="G13" s="39" t="s">
@@ -5000,7 +4996,7 @@
         <v>71</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>65</v>
@@ -5021,10 +5017,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="44"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="39" t="s">
         <v>74</v>
       </c>
@@ -5032,7 +5028,7 @@
         <v>75</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>76</v>
@@ -5053,10 +5049,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="44"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="39" t="s">
         <v>78</v>
       </c>
@@ -5085,10 +5081,10 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="44"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="39" t="s">
         <v>83</v>
       </c>
@@ -5117,10 +5113,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="39" t="s">
         <v>89</v>
       </c>
@@ -5149,10 +5145,10 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="39" t="s">
         <v>94</v>
       </c>
@@ -5160,7 +5156,7 @@
         <v>95</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>96</v>
@@ -5181,10 +5177,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="39" t="s">
         <v>98</v>
       </c>
@@ -5198,7 +5194,7 @@
         <v>101</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>48</v>
@@ -5213,24 +5209,24 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="39" t="s">
         <v>102</v>
       </c>
       <c r="H20" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="J20" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="K20" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>48</v>
@@ -5245,10 +5241,10 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="39" t="s">
         <v>103</v>
       </c>
@@ -5256,13 +5252,13 @@
         <v>104</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>105</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>106</v>
@@ -5277,10 +5273,10 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="39" t="s">
         <v>107</v>
       </c>
@@ -5288,13 +5284,13 @@
         <v>108</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>109</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>110</v>
@@ -5309,10 +5305,10 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="44"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="39" t="s">
         <v>111</v>
       </c>
@@ -5320,7 +5316,7 @@
         <v>112</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>113</v>
@@ -5341,12 +5337,12 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="42" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="47" t="s">
         <v>116</v>
       </c>
       <c r="G24" s="39" t="s">
@@ -5356,7 +5352,7 @@
         <v>118</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>34</v>
@@ -5377,10 +5373,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="44"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="39" t="s">
         <v>120</v>
       </c>
@@ -5409,12 +5405,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="42" t="s">
+      <c r="C26" s="43"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="47" t="s">
         <v>124</v>
       </c>
       <c r="G26" s="39" t="s">
@@ -5424,7 +5420,7 @@
         <v>124</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>109</v>
@@ -5445,10 +5441,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="44"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="39" t="s">
         <v>127</v>
       </c>
@@ -5456,7 +5452,7 @@
         <v>128</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>129</v>
@@ -5499,14 +5495,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="D4:D10"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
     <mergeCell ref="C11:C27"/>
     <mergeCell ref="D11:D27"/>
     <mergeCell ref="E11:E12"/>
@@ -5517,10 +5505,18 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C－&amp;P－</oddFooter>
   </headerFooter>
